--- a/election_votar_data/LOHAGARA/ADHUNAGAR/152548/152548_com_981_male_without_photo_55_2025-11-24.pdf.xlsx
+++ b/election_votar_data/LOHAGARA/ADHUNAGAR/152548/152548_com_981_male_without_photo_55_2025-11-24.pdf.xlsx
@@ -450,7 +450,7 @@
     <col width="20" customWidth="1" min="3" max="3"/>
     <col width="36.5" customWidth="1" min="4" max="4"/>
     <col width="37" customWidth="1" min="5" max="5"/>
-    <col width="29.5" customWidth="1" min="6" max="6"/>
+    <col width="50" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -693,7 +693,7 @@
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>দক্ষিণ</t>
+          <t>দক্ষিণ জন্ম তারিখ: ০১/০১/১৯৮৯</t>
         </is>
       </c>
       <c r="G6" s="3" t="inlineStr">
@@ -2037,7 +2037,7 @@
       </c>
       <c r="F38" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>বেকার জন্ম তারিখ: ৩১/১২/১৯৮৮</t>
         </is>
       </c>
       <c r="G38" s="3" t="inlineStr">
@@ -2877,7 +2877,7 @@
       </c>
       <c r="F58" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ: ১৮/০৫/১৯৮১</t>
         </is>
       </c>
       <c r="G58" s="3" t="inlineStr">
@@ -3507,7 +3507,7 @@
       </c>
       <c r="F73" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ: ১২/০৮/১৯৯৯</t>
         </is>
       </c>
       <c r="G73" s="3" t="inlineStr">
@@ -3801,7 +3801,7 @@
       </c>
       <c r="F80" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ: ১৫/০৮/১৯৮৮</t>
         </is>
       </c>
       <c r="G80" s="3" t="inlineStr">
@@ -4374,7 +4374,7 @@
       </c>
       <c r="C94" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৮০০০৫২২</t>
+          <t>১৫২৫৪৮০০০৫২০</t>
         </is>
       </c>
       <c r="D94" s="4" t="inlineStr">
@@ -4389,7 +4389,7 @@
       </c>
       <c r="F94" s="3" t="inlineStr">
         <is>
-          <t>দিনমজুর</t>
+          <t>দিনমজুর/জন্ম তারিখ:০১/০৩/১৯৯৭</t>
         </is>
       </c>
       <c r="G94" s="3" t="inlineStr">
@@ -5565,7 +5565,7 @@
       </c>
       <c r="F122" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ: ০৫/০৩/১৯৭৪</t>
         </is>
       </c>
       <c r="G122" s="3" t="inlineStr">
@@ -6027,7 +6027,7 @@
       </c>
       <c r="F133" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী জন্ম তারিখ: ০১/০৩/১৯৯০</t>
         </is>
       </c>
       <c r="G133" s="3" t="inlineStr">
@@ -7077,7 +7077,7 @@
       </c>
       <c r="F158" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>কৃষক জন্ম তারিখ: ২৫/০২/১৯৯০</t>
         </is>
       </c>
       <c r="G158" s="3" t="inlineStr">
@@ -7371,7 +7371,7 @@
       </c>
       <c r="F165" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>শ্রমিক জন্ম তারিখ: ০১/০১/১৯৯২</t>
         </is>
       </c>
       <c r="G165" s="3" t="inlineStr">
@@ -7581,7 +7581,7 @@
       </c>
       <c r="F170" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>বেকার/জন্ম তারিখ:০৭/০১/২০০০</t>
         </is>
       </c>
       <c r="G170" s="3" t="inlineStr">
@@ -9135,7 +9135,7 @@
       </c>
       <c r="F207" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>শ্রমিক জন্ম তারিখ: ১৩/০৬/১৯৬৬</t>
         </is>
       </c>
       <c r="G207" s="3" t="inlineStr">
@@ -10059,7 +10059,7 @@
       </c>
       <c r="F229" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা জন্ম তারিখ: ২০/০৮/১৯৮৫</t>
         </is>
       </c>
       <c r="G229" s="3" t="inlineStr">
@@ -13713,7 +13713,7 @@
       </c>
       <c r="F316" s="3" t="inlineStr">
         <is>
-          <t>প্রবাসী</t>
+          <t>প্রবাসী জন্ম তারিখ: ১৩/০৭/১৯৮০</t>
         </is>
       </c>
       <c r="G316" s="3" t="inlineStr">
@@ -15981,7 +15981,7 @@
       </c>
       <c r="F370" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>কৃষক জন্ম তারিখ: ২৪/০৪/১৯৬৯</t>
         </is>
       </c>
       <c r="G370" s="3" t="inlineStr">
@@ -17157,7 +17157,7 @@
       </c>
       <c r="F398" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ: ১০/০৩/১৯৮৭</t>
         </is>
       </c>
       <c r="G398" s="3" t="inlineStr">
@@ -17409,7 +17409,7 @@
       </c>
       <c r="F404" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>শ্রমিক জন্ম তারিখ: ২০/০৪/১৯৮৩</t>
         </is>
       </c>
       <c r="G404" s="3" t="inlineStr">
@@ -19761,7 +19761,7 @@
       </c>
       <c r="F460" s="3" t="inlineStr">
         <is>
-          <t>প্রবাসী</t>
+          <t>প্রবাসী জন্ম তারিখ: ১৭/০২/১৯৮৫</t>
         </is>
       </c>
       <c r="G460" s="3" t="inlineStr">
@@ -21735,7 +21735,7 @@
       </c>
       <c r="F507" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ: ০১/০২/১৯৯৯</t>
         </is>
       </c>
       <c r="G507" s="3" t="inlineStr">
@@ -21861,7 +21861,7 @@
       </c>
       <c r="F510" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০১/০২/২০০০</t>
         </is>
       </c>
       <c r="G510" s="3" t="inlineStr">
@@ -23541,7 +23541,7 @@
       </c>
       <c r="F550" s="3" t="inlineStr">
         <is>
-          <t>মিস্ত্রী</t>
+          <t>মিস্ত্রী/জন্ম তারিখ: ০৪/০৫/১৯৯৯</t>
         </is>
       </c>
       <c r="G550" s="3" t="inlineStr">
@@ -23904,7 +23904,7 @@
       </c>
       <c r="C559" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৮০০০৫২৩</t>
+          <t>১৫২৫৪৮০০০৫২১</t>
         </is>
       </c>
       <c r="D559" s="4" t="inlineStr">
@@ -23919,7 +23919,7 @@
       </c>
       <c r="F559" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:১২/০২/২০০১</t>
         </is>
       </c>
       <c r="G559" s="3" t="inlineStr">
@@ -24465,7 +24465,7 @@
       </c>
       <c r="F572" s="3" t="inlineStr">
         <is>
-          <t>দক্ষিণ</t>
+          <t>দক্ষিণ জন্ম তারিখ: ০১/০১/১৯৮৯</t>
         </is>
       </c>
       <c r="G572" s="3" t="inlineStr">
@@ -25557,7 +25557,7 @@
       </c>
       <c r="F598" s="3" t="inlineStr">
         <is>
-          <t>দিনমজুর</t>
+          <t>দিনমজুর/জন্ম তারিখ: ০৪/০২/১৯৮৫</t>
         </is>
       </c>
       <c r="G598" s="3" t="inlineStr">
@@ -25641,7 +25641,7 @@
       </c>
       <c r="F600" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ: ২০/০১/২০০৩</t>
         </is>
       </c>
       <c r="G600" s="3" t="inlineStr">
@@ -25683,7 +25683,7 @@
       </c>
       <c r="F601" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ: ১৭/০৮/১৯৯৯</t>
         </is>
       </c>
       <c r="G601" s="3" t="inlineStr">
@@ -25725,7 +25725,7 @@
       </c>
       <c r="F602" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>বেকার/জন্ম তারিখ: ০৯/০৯/২০০০</t>
         </is>
       </c>
       <c r="G602" s="3" t="inlineStr">
@@ -25809,7 +25809,7 @@
       </c>
       <c r="F604" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ: ০৫/০৫/১৯৯৯</t>
         </is>
       </c>
       <c r="G604" s="3" t="inlineStr">
@@ -25851,7 +25851,7 @@
       </c>
       <c r="F605" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ: ১০/১০/২০০০</t>
         </is>
       </c>
       <c r="G605" s="3" t="inlineStr">
@@ -25893,7 +25893,7 @@
       </c>
       <c r="F606" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>কৃষক/জন্ম তারিখ: ১২/১২/১৯৯৭</t>
         </is>
       </c>
       <c r="G606" s="3" t="inlineStr">
@@ -27909,7 +27909,7 @@
       </c>
       <c r="F654" s="3" t="inlineStr">
         <is>
-          <t>প্রবাসী</t>
+          <t>প্রবাসী জন্ম তারিখ: ১৬/০৬/১৯৭৩</t>
         </is>
       </c>
       <c r="G654" s="3" t="inlineStr">
@@ -28119,7 +28119,7 @@
       </c>
       <c r="F659" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>শ্রমিক জন্ম তারিখ: ০১/০২/১৯৯১</t>
         </is>
       </c>
       <c r="G659" s="3" t="inlineStr">
@@ -28161,7 +28161,7 @@
       </c>
       <c r="F660" s="3" t="inlineStr">
         <is>
-          <t>মিস্ট্রি</t>
+          <t>মিস্ট্রি জন্ম তারিখ: ০৫/০৭/১৯৯০</t>
         </is>
       </c>
       <c r="G660" s="3" t="inlineStr">
@@ -29043,7 +29043,7 @@
       </c>
       <c r="F681" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ: ১০/০৬/১৯৮১</t>
         </is>
       </c>
       <c r="G681" s="3" t="inlineStr">
@@ -29253,7 +29253,7 @@
       </c>
       <c r="F686" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা জন্ম তারিখ: ১৮/১০/১৯৭৭</t>
         </is>
       </c>
       <c r="G686" s="3" t="inlineStr">
@@ -29757,7 +29757,7 @@
       </c>
       <c r="F698" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>শ্রমিক জন্ম তারিখ: ২৭/০৩/১৯৯১</t>
         </is>
       </c>
       <c r="G698" s="3" t="inlineStr">
@@ -30429,7 +30429,7 @@
       </c>
       <c r="F714" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:২৪/১০/১৯৯৯</t>
         </is>
       </c>
       <c r="G714" s="3" t="inlineStr">
@@ -31185,7 +31185,7 @@
       </c>
       <c r="F732" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ: ০৩/০৬/১৯৯৯</t>
         </is>
       </c>
       <c r="G732" s="3" t="inlineStr">
@@ -32319,7 +32319,7 @@
       </c>
       <c r="F759" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>বেকার/জন্ম তারিখ:২৬/০৫/২০০১</t>
         </is>
       </c>
       <c r="G759" s="3" t="inlineStr">
@@ -32403,7 +32403,7 @@
       </c>
       <c r="F761" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০৭/০১/২০০০</t>
         </is>
       </c>
       <c r="G761" s="3" t="inlineStr">
@@ -32487,7 +32487,7 @@
       </c>
       <c r="F763" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০৭/০২/২০০০</t>
         </is>
       </c>
       <c r="G763" s="3" t="inlineStr">
@@ -32739,7 +32739,7 @@
       </c>
       <c r="F769" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ: ০২/০৩/১৯৮৪</t>
         </is>
       </c>
       <c r="G769" s="3" t="inlineStr">
@@ -34125,7 +34125,7 @@
       </c>
       <c r="F802" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী জন্ম তারিখ: ১০/০৭/১৯৮৯</t>
         </is>
       </c>
       <c r="G802" s="3" t="inlineStr">
@@ -34377,7 +34377,7 @@
       </c>
       <c r="F808" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০৬/০২/২০০৩</t>
         </is>
       </c>
       <c r="G808" s="3" t="inlineStr">
@@ -35469,7 +35469,7 @@
       </c>
       <c r="F834" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ:১০/০২/২০০০</t>
         </is>
       </c>
       <c r="G834" s="3" t="inlineStr">
@@ -36309,7 +36309,7 @@
       </c>
       <c r="F854" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>শ্রমিক জন্ম তারিখ: ০৮/০৫/১৯৯০</t>
         </is>
       </c>
       <c r="G854" s="3" t="inlineStr">
@@ -36393,7 +36393,7 @@
       </c>
       <c r="F856" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০৯/০৭/২০০৩</t>
         </is>
       </c>
       <c r="G856" s="3" t="inlineStr">
@@ -36519,7 +36519,7 @@
       </c>
       <c r="F859" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:১৩/০৯/১৯৯৯</t>
         </is>
       </c>
       <c r="G859" s="3" t="inlineStr">
@@ -36630,7 +36630,7 @@
       </c>
       <c r="C862" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৮০০০৫২১</t>
+          <t>১৫২৫৪৮০০০৫১৯</t>
         </is>
       </c>
       <c r="D862" s="4" t="inlineStr">
@@ -36645,7 +36645,7 @@
       </c>
       <c r="F862" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০১/০২/২০০৩</t>
         </is>
       </c>
       <c r="G862" s="3" t="inlineStr">
@@ -36687,7 +36687,7 @@
       </c>
       <c r="F863" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ:০৮/০৫/২০০০</t>
         </is>
       </c>
       <c r="G863" s="3" t="inlineStr">
@@ -36771,7 +36771,7 @@
       </c>
       <c r="F865" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ:১০/০৩/১৯৬০</t>
         </is>
       </c>
       <c r="G865" s="3" t="inlineStr">
@@ -37485,7 +37485,7 @@
       </c>
       <c r="F882" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:২৮/০৬/১৯৯৮</t>
         </is>
       </c>
       <c r="G882" s="3" t="inlineStr">
@@ -37527,7 +37527,7 @@
       </c>
       <c r="F883" s="3" t="inlineStr">
         <is>
-          <t>প্রবাসী</t>
+          <t>প্রবাসী জন্ম তারিখ: ২৫/০৯/১৯৫৩</t>
         </is>
       </c>
       <c r="G883" s="3" t="inlineStr">
@@ -38619,7 +38619,7 @@
       </c>
       <c r="F909" s="3" t="inlineStr">
         <is>
-          <t>মিস্ত্রী</t>
+          <t>মিস্ত্রী/জন্ম তারিখ: ১২/০৩/১৯৯৩</t>
         </is>
       </c>
       <c r="G909" s="3" t="inlineStr">
@@ -39081,7 +39081,7 @@
       </c>
       <c r="F920" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:২৪/০২/২০০০</t>
         </is>
       </c>
       <c r="G920" s="3" t="inlineStr">
@@ -39123,7 +39123,7 @@
       </c>
       <c r="F921" s="3" t="inlineStr">
         <is>
-          <t>দিনমজুর</t>
+          <t>দিনমজুর/জন্ম তারিখ:২১/০৯/২০০১</t>
         </is>
       </c>
       <c r="G921" s="3" t="inlineStr">
